--- a/meta/en/5-5-2.xlsx
+++ b/meta/en/5-5-2.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -116,9 +115,6 @@
     <t>(0312) 626076</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>This indicator refers to the proportion of females in the total number of persons employed in senior and middle management. Expressed in percentage. Heads of enterprises, institutions and organizations (and their structural subdivisions) are: ministers, governors, heads of administrations, presidents, directors (directors-general), rectors, chiefs, managers, heads, chairmen, commanders, managers, masters, chief accountants, chief engineers, chief physicians, chief editors, etc. and their deputies.</t>
   </si>
   <si>
@@ -152,6 +148,9 @@
     <t>KR National SDG Reporting Platform:  https://sustainabledevelopment-kyrgyzstan.github.io
 http://www.stat.kg/ru/publications/zanyatost-i-bezrabotica-itogi-integrirovannogo-vyborochnogo-obsledovaniya-byudzhetov-domashnih-hozyajstv-i-rabochej-sily-v-2013g/
 http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -571,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -721,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
